--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1898.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1898.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.063182517735806</v>
+        <v>1.569988608360291</v>
       </c>
       <c r="B1">
-        <v>3.196271845525555</v>
+        <v>2.426857233047485</v>
       </c>
       <c r="C1">
-        <v>3.424790558478548</v>
+        <v>5.450758457183838</v>
       </c>
       <c r="D1">
-        <v>2.660057942930777</v>
+        <v>1.493471145629883</v>
       </c>
       <c r="E1">
-        <v>1.267361012304192</v>
+        <v>0.8236287236213684</v>
       </c>
     </row>
   </sheetData>
